--- a/Tickets.xlsx
+++ b/Tickets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\tickets_web_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987D3122-E5AA-4BF0-AB94-3B6F0409C927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8946A8-ABCA-417C-A4AF-D116E3155E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C0FA381-D708-4478-922F-AE5A18698AE2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>EMPRESAS</t>
   </si>
@@ -119,9 +119,6 @@
     <t>Editar un Ticket</t>
   </si>
   <si>
-    <t>Enviar un Ticket</t>
-  </si>
-  <si>
     <t>Filtrar por estado/fecha</t>
   </si>
   <si>
@@ -144,6 +141,15 @@
   </si>
   <si>
     <t>Enviar mail al usuario que generó el ticket</t>
+  </si>
+  <si>
+    <t>Eliminar una Empresa (sólo si no tiene Usuarios)</t>
+  </si>
+  <si>
+    <t>Eliminar un Usuario (sólo si no tiene Tickets)</t>
+  </si>
+  <si>
+    <t>Enviar un Ticket (con mail?)</t>
   </si>
 </sst>
 </file>
@@ -540,14 +546,14 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="3" style="1" customWidth="1"/>
     <col min="6" max="16384" width="11.5546875" style="1"/>
@@ -572,11 +578,11 @@
         <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -587,7 +593,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -598,7 +604,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -609,40 +615,40 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -657,7 +663,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -668,7 +674,7 @@
         <v>20</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -679,25 +685,31 @@
         <v>21</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C13" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="F13" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Tickets.xlsx
+++ b/Tickets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\tickets_web_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8946A8-ABCA-417C-A4AF-D116E3155E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251E342A-7433-4210-9A01-BDB9EFB44208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C0FA381-D708-4478-922F-AE5A18698AE2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>EMPRESAS</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>Enviar un Ticket (con mail?)</t>
+  </si>
+  <si>
+    <t>Reenvío de mail de confirmación de cuenta</t>
   </si>
 </sst>
 </file>
@@ -187,7 +190,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,7 +549,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -618,7 +621,7 @@
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -629,7 +632,7 @@
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -640,7 +643,7 @@
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -651,7 +654,7 @@
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -660,7 +663,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>28</v>
@@ -671,7 +674,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>30</v>
@@ -682,7 +685,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>31</v>
@@ -693,7 +696,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>32</v>
@@ -702,6 +705,9 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>35</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>33</v>

--- a/Tickets.xlsx
+++ b/Tickets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\tickets_web_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251E342A-7433-4210-9A01-BDB9EFB44208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B0771F-8AEA-4FF8-A372-5477575A1944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C0FA381-D708-4478-922F-AE5A18698AE2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>EMPRESAS</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>Reenvío de mail de confirmación de cuenta</t>
+  </si>
+  <si>
+    <t>Editar usuario logueado</t>
   </si>
 </sst>
 </file>
@@ -549,7 +552,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -599,7 +602,7 @@
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -611,7 +614,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>26</v>
@@ -621,8 +624,8 @@
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>17</v>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>37</v>
@@ -633,7 +636,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>30</v>
@@ -644,7 +647,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>27</v>
@@ -655,15 +658,15 @@
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>38</v>
+      <c r="C10" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>28</v>
@@ -674,7 +677,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>30</v>
@@ -685,7 +688,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>31</v>
@@ -696,7 +699,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>32</v>
@@ -707,13 +710,16 @@
         <v>35</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C15" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="F15" s="1" t="s">
         <v>34</v>
       </c>

--- a/Tickets.xlsx
+++ b/Tickets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\tickets_web_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B0771F-8AEA-4FF8-A372-5477575A1944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F508B470-F749-4838-8CD7-65A8A8195595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C0FA381-D708-4478-922F-AE5A18698AE2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>EMPRESAS</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>Filtrar por Nombre</t>
-  </si>
-  <si>
-    <t>Ver solo Activas</t>
   </si>
   <si>
     <t>Cantidad de usuarios de cada empresa</t>
@@ -552,7 +549,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -570,21 +567,21 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -592,10 +589,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -603,10 +600,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -614,10 +611,10 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -625,10 +622,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -636,10 +633,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -647,10 +644,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -658,70 +655,70 @@
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
+      <c r="A10" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Tickets.xlsx
+++ b/Tickets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\tickets_web_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F508B470-F749-4838-8CD7-65A8A8195595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC09F28-48AD-45EF-9839-BF5A07FDA499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C0FA381-D708-4478-922F-AE5A18698AE2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>EMPRESAS</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>Editar usuario logueado</t>
+  </si>
+  <si>
+    <t>No poder desactivarse/borrarse a uno mismo</t>
   </si>
 </sst>
 </file>
@@ -190,7 +193,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC422C99-E1B2-42BC-9FEB-41DADA2E2C18}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -610,7 +613,7 @@
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -621,7 +624,7 @@
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -670,7 +673,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -681,7 +684,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -692,10 +695,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -703,10 +706,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -714,11 +717,16 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C16" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Tickets.xlsx
+++ b/Tickets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\tickets_web_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC09F28-48AD-45EF-9839-BF5A07FDA499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E630D6-2CA1-45F8-8D2E-4BC144A8F6E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C0FA381-D708-4478-922F-AE5A18698AE2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
   <si>
     <t>EMPRESAS</t>
   </si>
@@ -156,6 +156,69 @@
   </si>
   <si>
     <t>No poder desactivarse/borrarse a uno mismo</t>
+  </si>
+  <si>
+    <t>CABECERA TICKETS</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Fecha Creación</t>
+  </si>
+  <si>
+    <t>Usuario Creación</t>
+  </si>
+  <si>
+    <t>Empresa</t>
+  </si>
+  <si>
+    <t>Título</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>ESTADOS TICKETS</t>
+  </si>
+  <si>
+    <t>Borrador</t>
+  </si>
+  <si>
+    <t>Enviado</t>
+  </si>
+  <si>
+    <t>Rechazado</t>
+  </si>
+  <si>
+    <t>Devuelto Incompleto</t>
+  </si>
+  <si>
+    <t>Resuelto</t>
+  </si>
+  <si>
+    <t>Fecha Estado</t>
+  </si>
+  <si>
+    <t>Usuario Estado</t>
+  </si>
+  <si>
+    <t>DETALLE TICKETS</t>
+  </si>
+  <si>
+    <t>IdCabecera</t>
+  </si>
+  <si>
+    <t>Imagen</t>
+  </si>
+  <si>
+    <t>Comentario</t>
+  </si>
+  <si>
+    <t>Fecha</t>
   </si>
 </sst>
 </file>
@@ -549,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC422C99-E1B2-42BC-9FEB-41DADA2E2C18}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -565,7 +628,7 @@
     <col min="6" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -575,8 +638,14 @@
       <c r="E1" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -586,8 +655,14 @@
       <c r="E2" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -597,8 +672,14 @@
       <c r="F3" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -608,8 +689,14 @@
       <c r="F4" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -619,8 +706,14 @@
       <c r="F5" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -630,8 +723,14 @@
       <c r="F6" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -641,8 +740,11 @@
       <c r="F7" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I7" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -652,16 +754,22 @@
       <c r="F8" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I8" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I9" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -671,8 +779,11 @@
       <c r="E10" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I10" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>34</v>
       </c>
@@ -683,7 +794,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -694,7 +805,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -705,7 +816,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
@@ -716,7 +827,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C15" s="3" t="s">
         <v>20</v>
       </c>
@@ -724,12 +835,48 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C16" s="3" t="s">
         <v>39</v>
       </c>
     </row>
+    <row r="19" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I19" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I20" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I21" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I22" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I23" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I24" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I25" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tickets.xlsx
+++ b/Tickets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\tickets_web_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E630D6-2CA1-45F8-8D2E-4BC144A8F6E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FBBD91-4192-40D1-9994-B31FD9A2DF24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C0FA381-D708-4478-922F-AE5A18698AE2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
   <si>
     <t>EMPRESAS</t>
   </si>
@@ -194,9 +194,6 @@
     <t>Rechazado</t>
   </si>
   <si>
-    <t>Devuelto Incompleto</t>
-  </si>
-  <si>
     <t>Resuelto</t>
   </si>
   <si>
@@ -219,6 +216,12 @@
   </si>
   <si>
     <t>Fecha</t>
+  </si>
+  <si>
+    <t>Anulado</t>
+  </si>
+  <si>
+    <t>Devuelto</t>
   </si>
 </sst>
 </file>
@@ -615,7 +618,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -710,7 +713,7 @@
         <v>44</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -727,7 +730,7 @@
         <v>45</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -743,6 +746,9 @@
       <c r="I7" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="K7" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
@@ -766,7 +772,7 @@
         <v>18</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -780,7 +786,7 @@
         <v>27</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -842,7 +848,7 @@
     </row>
     <row r="19" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I19" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="9:9" x14ac:dyDescent="0.2">
@@ -852,17 +858,17 @@
     </row>
     <row r="21" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I21" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I22" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I23" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="9:9" x14ac:dyDescent="0.2">
@@ -872,7 +878,7 @@
     </row>
     <row r="25" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I25" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Tickets.xlsx
+++ b/Tickets.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\tickets_web_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FBBD91-4192-40D1-9994-B31FD9A2DF24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D002F1FF-BD45-4B63-96F0-E6C755A84CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C0FA381-D708-4478-922F-AE5A18698AE2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C0FA381-D708-4478-922F-AE5A18698AE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="103">
   <si>
     <t>EMPRESAS</t>
   </si>
@@ -158,30 +159,9 @@
     <t>No poder desactivarse/borrarse a uno mismo</t>
   </si>
   <si>
-    <t>CABECERA TICKETS</t>
-  </si>
-  <si>
     <t>Id</t>
   </si>
   <si>
-    <t>Fecha Creación</t>
-  </si>
-  <si>
-    <t>Usuario Creación</t>
-  </si>
-  <si>
-    <t>Empresa</t>
-  </si>
-  <si>
-    <t>Título</t>
-  </si>
-  <si>
-    <t>Descripción</t>
-  </si>
-  <si>
-    <t>Estado</t>
-  </si>
-  <si>
     <t>ESTADOS TICKETS</t>
   </si>
   <si>
@@ -197,38 +177,182 @@
     <t>Resuelto</t>
   </si>
   <si>
-    <t>Fecha Estado</t>
-  </si>
-  <si>
-    <t>Usuario Estado</t>
-  </si>
-  <si>
-    <t>DETALLE TICKETS</t>
-  </si>
-  <si>
-    <t>IdCabecera</t>
-  </si>
-  <si>
-    <t>Imagen</t>
-  </si>
-  <si>
-    <t>Comentario</t>
-  </si>
-  <si>
-    <t>Fecha</t>
-  </si>
-  <si>
     <t>Anulado</t>
   </si>
   <si>
     <t>Devuelto</t>
+  </si>
+  <si>
+    <t>Tarea</t>
+  </si>
+  <si>
+    <t>SuperAdmin</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Listar Usuarios</t>
+  </si>
+  <si>
+    <t>Todos</t>
+  </si>
+  <si>
+    <t>Su empresa</t>
+  </si>
+  <si>
+    <t>Alta de Admin con envío de Email</t>
+  </si>
+  <si>
+    <t>Alta de User con envío de Email</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Editar SuperAdmin</t>
+  </si>
+  <si>
+    <t>Editar Admin</t>
+  </si>
+  <si>
+    <t>Activar / Desactivar Admin</t>
+  </si>
+  <si>
+    <t>Activar / Desactivar SuperAdmin</t>
+  </si>
+  <si>
+    <t>Activar / Desactivar User</t>
+  </si>
+  <si>
+    <t>Para SuperAdmin y Admin</t>
+  </si>
+  <si>
+    <t>Para User</t>
+  </si>
+  <si>
+    <t>Eliminar un Admin (sólo si no tiene Users dados de alta)</t>
+  </si>
+  <si>
+    <t>Eliminar un SuperAdmin (sólo si no tiene SuperAdmin o Admin dados de alta)</t>
+  </si>
+  <si>
+    <t>Lista de Tickets</t>
+  </si>
+  <si>
+    <t>Sus Tickets</t>
+  </si>
+  <si>
+    <t>Cargar Nuevo Ticket</t>
+  </si>
+  <si>
+    <t>USERS</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>UserType</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>CreateDate</t>
+  </si>
+  <si>
+    <t>CreateUser</t>
+  </si>
+  <si>
+    <t>LastChangeDate</t>
+  </si>
+  <si>
+    <t>LastChangeUser</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>FullName</t>
+  </si>
+  <si>
+    <t>Tickets</t>
+  </si>
+  <si>
+    <t>COMPANY</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Photo</t>
+  </si>
+  <si>
+    <t>PhotoFullPath</t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>UsersNumber</t>
+  </si>
+  <si>
+    <t>TICKETCAB</t>
+  </si>
+  <si>
+    <t>TicketState</t>
+  </si>
+  <si>
+    <t>StateDate</t>
+  </si>
+  <si>
+    <t>StateUser</t>
+  </si>
+  <si>
+    <t>FinishDate</t>
+  </si>
+  <si>
+    <t>TICKETDET</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>ImageFullPath</t>
+  </si>
+  <si>
+    <t>TicketCab</t>
+  </si>
+  <si>
+    <t>TicketDets</t>
+  </si>
+  <si>
+    <t>TicketDetsNumber</t>
+  </si>
+  <si>
+    <t>Alta de AdminKP con envío de Email</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,8 +373,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -263,8 +394,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -272,15 +421,93 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -615,23 +842,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC422C99-E1B2-42BC-9FEB-41DADA2E2C18}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N9" sqref="N9:N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="1.77734375" style="1" customWidth="1"/>
     <col min="3" max="3" width="29.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="1.77734375" style="1" customWidth="1"/>
     <col min="5" max="5" width="3" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.5546875" style="1"/>
+    <col min="6" max="6" width="27.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.77734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" style="1"/>
+    <col min="11" max="11" width="1.77734375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5546875" style="1"/>
+    <col min="13" max="13" width="1.77734375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="1.77734375" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -641,14 +878,23 @@
       <c r="E1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -658,14 +904,23 @@
       <c r="E2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -675,14 +930,23 @@
       <c r="F3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -692,14 +956,23 @@
       <c r="F4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -709,14 +982,23 @@
       <c r="F5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -726,14 +1008,23 @@
       <c r="F6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -743,14 +1034,23 @@
       <c r="F7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -760,22 +1060,37 @@
       <c r="F8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -785,11 +1100,14 @@
       <c r="E10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>34</v>
       </c>
@@ -799,8 +1117,17 @@
       <c r="F11" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -811,7 +1138,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -821,8 +1148,14 @@
       <c r="F13" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
@@ -832,57 +1165,1880 @@
       <c r="F14" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J15" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C16" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I19" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I20" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I21" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I22" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I23" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I24" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I25" s="1" t="s">
-        <v>59</v>
+      <c r="J16" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C40B2EA-A404-4D76-ACF6-3DCE9418AA55}">
+  <dimension ref="A1:D314"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17:B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="51.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="18.21875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.5546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="11"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="5"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="11"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="5"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="5"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="5"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="5"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="5"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="5"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="5"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="5"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B114" s="4"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B116" s="4"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B119" s="4"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B120" s="4"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B121" s="4"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B122" s="4"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B123" s="4"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B124" s="4"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4"/>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B126" s="4"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B127" s="4"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B128" s="4"/>
+      <c r="C128" s="4"/>
+      <c r="D128" s="4"/>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B129" s="4"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4"/>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B130" s="4"/>
+      <c r="C130" s="4"/>
+      <c r="D130" s="4"/>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B131" s="4"/>
+      <c r="C131" s="4"/>
+      <c r="D131" s="4"/>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B132" s="4"/>
+      <c r="C132" s="4"/>
+      <c r="D132" s="4"/>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B133" s="4"/>
+      <c r="C133" s="4"/>
+      <c r="D133" s="4"/>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B134" s="4"/>
+      <c r="C134" s="4"/>
+      <c r="D134" s="4"/>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B135" s="4"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B136" s="4"/>
+      <c r="C136" s="4"/>
+      <c r="D136" s="4"/>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B137" s="4"/>
+      <c r="C137" s="4"/>
+      <c r="D137" s="4"/>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B138" s="4"/>
+      <c r="C138" s="4"/>
+      <c r="D138" s="4"/>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B139" s="4"/>
+      <c r="C139" s="4"/>
+      <c r="D139" s="4"/>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B140" s="4"/>
+      <c r="C140" s="4"/>
+      <c r="D140" s="4"/>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B141" s="4"/>
+      <c r="C141" s="4"/>
+      <c r="D141" s="4"/>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B142" s="4"/>
+      <c r="C142" s="4"/>
+      <c r="D142" s="4"/>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B143" s="4"/>
+      <c r="C143" s="4"/>
+      <c r="D143" s="4"/>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B144" s="4"/>
+      <c r="C144" s="4"/>
+      <c r="D144" s="4"/>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B145" s="4"/>
+      <c r="C145" s="4"/>
+      <c r="D145" s="4"/>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B146" s="4"/>
+      <c r="C146" s="4"/>
+      <c r="D146" s="4"/>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B147" s="4"/>
+      <c r="C147" s="4"/>
+      <c r="D147" s="4"/>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B148" s="4"/>
+      <c r="C148" s="4"/>
+      <c r="D148" s="4"/>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B149" s="4"/>
+      <c r="C149" s="4"/>
+      <c r="D149" s="4"/>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B150" s="4"/>
+      <c r="C150" s="4"/>
+      <c r="D150" s="4"/>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B151" s="4"/>
+      <c r="C151" s="4"/>
+      <c r="D151" s="4"/>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B152" s="4"/>
+      <c r="C152" s="4"/>
+      <c r="D152" s="4"/>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B153" s="4"/>
+      <c r="C153" s="4"/>
+      <c r="D153" s="4"/>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B154" s="4"/>
+      <c r="C154" s="4"/>
+      <c r="D154" s="4"/>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B155" s="4"/>
+      <c r="C155" s="4"/>
+      <c r="D155" s="4"/>
+    </row>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B156" s="4"/>
+      <c r="C156" s="4"/>
+      <c r="D156" s="4"/>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B157" s="4"/>
+      <c r="C157" s="4"/>
+      <c r="D157" s="4"/>
+    </row>
+    <row r="158" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B158" s="4"/>
+      <c r="C158" s="4"/>
+      <c r="D158" s="4"/>
+    </row>
+    <row r="159" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B159" s="4"/>
+      <c r="C159" s="4"/>
+      <c r="D159" s="4"/>
+    </row>
+    <row r="160" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B160" s="4"/>
+      <c r="C160" s="4"/>
+      <c r="D160" s="4"/>
+    </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B161" s="4"/>
+      <c r="C161" s="4"/>
+      <c r="D161" s="4"/>
+    </row>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B162" s="4"/>
+      <c r="C162" s="4"/>
+      <c r="D162" s="4"/>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B163" s="4"/>
+      <c r="C163" s="4"/>
+      <c r="D163" s="4"/>
+    </row>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B164" s="4"/>
+      <c r="C164" s="4"/>
+      <c r="D164" s="4"/>
+    </row>
+    <row r="165" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B165" s="4"/>
+      <c r="C165" s="4"/>
+      <c r="D165" s="4"/>
+    </row>
+    <row r="166" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B166" s="4"/>
+      <c r="C166" s="4"/>
+      <c r="D166" s="4"/>
+    </row>
+    <row r="167" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B167" s="4"/>
+      <c r="C167" s="4"/>
+      <c r="D167" s="4"/>
+    </row>
+    <row r="168" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B168" s="4"/>
+      <c r="C168" s="4"/>
+      <c r="D168" s="4"/>
+    </row>
+    <row r="169" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B169" s="4"/>
+      <c r="C169" s="4"/>
+      <c r="D169" s="4"/>
+    </row>
+    <row r="170" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B170" s="4"/>
+      <c r="C170" s="4"/>
+      <c r="D170" s="4"/>
+    </row>
+    <row r="171" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B171" s="4"/>
+      <c r="C171" s="4"/>
+      <c r="D171" s="4"/>
+    </row>
+    <row r="172" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B172" s="4"/>
+      <c r="C172" s="4"/>
+      <c r="D172" s="4"/>
+    </row>
+    <row r="173" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B173" s="4"/>
+      <c r="C173" s="4"/>
+      <c r="D173" s="4"/>
+    </row>
+    <row r="174" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B174" s="4"/>
+      <c r="C174" s="4"/>
+      <c r="D174" s="4"/>
+    </row>
+    <row r="175" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B175" s="4"/>
+      <c r="C175" s="4"/>
+      <c r="D175" s="4"/>
+    </row>
+    <row r="176" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B176" s="4"/>
+      <c r="C176" s="4"/>
+      <c r="D176" s="4"/>
+    </row>
+    <row r="177" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B177" s="4"/>
+      <c r="C177" s="4"/>
+      <c r="D177" s="4"/>
+    </row>
+    <row r="178" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B178" s="4"/>
+      <c r="C178" s="4"/>
+      <c r="D178" s="4"/>
+    </row>
+    <row r="179" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B179" s="4"/>
+      <c r="C179" s="4"/>
+      <c r="D179" s="4"/>
+    </row>
+    <row r="180" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B180" s="4"/>
+      <c r="C180" s="4"/>
+      <c r="D180" s="4"/>
+    </row>
+    <row r="181" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B181" s="4"/>
+      <c r="C181" s="4"/>
+      <c r="D181" s="4"/>
+    </row>
+    <row r="182" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B182" s="4"/>
+      <c r="C182" s="4"/>
+      <c r="D182" s="4"/>
+    </row>
+    <row r="183" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B183" s="4"/>
+      <c r="C183" s="4"/>
+      <c r="D183" s="4"/>
+    </row>
+    <row r="184" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B184" s="4"/>
+      <c r="C184" s="4"/>
+      <c r="D184" s="4"/>
+    </row>
+    <row r="185" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B185" s="4"/>
+      <c r="C185" s="4"/>
+      <c r="D185" s="4"/>
+    </row>
+    <row r="186" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B186" s="4"/>
+      <c r="C186" s="4"/>
+      <c r="D186" s="4"/>
+    </row>
+    <row r="187" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B187" s="4"/>
+      <c r="C187" s="4"/>
+      <c r="D187" s="4"/>
+    </row>
+    <row r="188" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B188" s="4"/>
+      <c r="C188" s="4"/>
+      <c r="D188" s="4"/>
+    </row>
+    <row r="189" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B189" s="4"/>
+      <c r="C189" s="4"/>
+      <c r="D189" s="4"/>
+    </row>
+    <row r="190" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B190" s="4"/>
+      <c r="C190" s="4"/>
+      <c r="D190" s="4"/>
+    </row>
+    <row r="191" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B191" s="4"/>
+      <c r="C191" s="4"/>
+      <c r="D191" s="4"/>
+    </row>
+    <row r="192" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B192" s="4"/>
+      <c r="C192" s="4"/>
+      <c r="D192" s="4"/>
+    </row>
+    <row r="193" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B193" s="4"/>
+      <c r="C193" s="4"/>
+      <c r="D193" s="4"/>
+    </row>
+    <row r="194" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B194" s="4"/>
+      <c r="C194" s="4"/>
+      <c r="D194" s="4"/>
+    </row>
+    <row r="195" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B195" s="4"/>
+      <c r="C195" s="4"/>
+      <c r="D195" s="4"/>
+    </row>
+    <row r="196" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B196" s="4"/>
+      <c r="C196" s="4"/>
+      <c r="D196" s="4"/>
+    </row>
+    <row r="197" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B197" s="4"/>
+      <c r="C197" s="4"/>
+      <c r="D197" s="4"/>
+    </row>
+    <row r="198" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B198" s="4"/>
+      <c r="C198" s="4"/>
+      <c r="D198" s="4"/>
+    </row>
+    <row r="199" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B199" s="4"/>
+      <c r="C199" s="4"/>
+      <c r="D199" s="4"/>
+    </row>
+    <row r="200" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B200" s="4"/>
+      <c r="C200" s="4"/>
+      <c r="D200" s="4"/>
+    </row>
+    <row r="201" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B201" s="4"/>
+      <c r="C201" s="4"/>
+      <c r="D201" s="4"/>
+    </row>
+    <row r="202" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B202" s="4"/>
+      <c r="C202" s="4"/>
+      <c r="D202" s="4"/>
+    </row>
+    <row r="203" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B203" s="4"/>
+      <c r="C203" s="4"/>
+      <c r="D203" s="4"/>
+    </row>
+    <row r="204" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B204" s="4"/>
+      <c r="C204" s="4"/>
+      <c r="D204" s="4"/>
+    </row>
+    <row r="205" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B205" s="4"/>
+      <c r="C205" s="4"/>
+      <c r="D205" s="4"/>
+    </row>
+    <row r="206" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B206" s="4"/>
+      <c r="C206" s="4"/>
+      <c r="D206" s="4"/>
+    </row>
+    <row r="207" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B207" s="4"/>
+      <c r="C207" s="4"/>
+      <c r="D207" s="4"/>
+    </row>
+    <row r="208" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B208" s="4"/>
+      <c r="C208" s="4"/>
+      <c r="D208" s="4"/>
+    </row>
+    <row r="209" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B209" s="4"/>
+      <c r="C209" s="4"/>
+      <c r="D209" s="4"/>
+    </row>
+    <row r="210" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B210" s="4"/>
+      <c r="C210" s="4"/>
+      <c r="D210" s="4"/>
+    </row>
+    <row r="211" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B211" s="4"/>
+      <c r="C211" s="4"/>
+      <c r="D211" s="4"/>
+    </row>
+    <row r="212" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B212" s="4"/>
+      <c r="C212" s="4"/>
+      <c r="D212" s="4"/>
+    </row>
+    <row r="213" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B213" s="4"/>
+      <c r="C213" s="4"/>
+      <c r="D213" s="4"/>
+    </row>
+    <row r="214" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B214" s="4"/>
+      <c r="C214" s="4"/>
+      <c r="D214" s="4"/>
+    </row>
+    <row r="215" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B215" s="4"/>
+      <c r="C215" s="4"/>
+      <c r="D215" s="4"/>
+    </row>
+    <row r="216" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B216" s="4"/>
+      <c r="C216" s="4"/>
+      <c r="D216" s="4"/>
+    </row>
+    <row r="217" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B217" s="4"/>
+      <c r="C217" s="4"/>
+      <c r="D217" s="4"/>
+    </row>
+    <row r="218" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B218" s="4"/>
+      <c r="C218" s="4"/>
+      <c r="D218" s="4"/>
+    </row>
+    <row r="219" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B219" s="4"/>
+      <c r="C219" s="4"/>
+      <c r="D219" s="4"/>
+    </row>
+    <row r="220" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B220" s="4"/>
+      <c r="C220" s="4"/>
+      <c r="D220" s="4"/>
+    </row>
+    <row r="221" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B221" s="4"/>
+      <c r="C221" s="4"/>
+      <c r="D221" s="4"/>
+    </row>
+    <row r="222" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B222" s="4"/>
+      <c r="C222" s="4"/>
+      <c r="D222" s="4"/>
+    </row>
+    <row r="223" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B223" s="4"/>
+      <c r="C223" s="4"/>
+      <c r="D223" s="4"/>
+    </row>
+    <row r="224" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B224" s="4"/>
+      <c r="C224" s="4"/>
+      <c r="D224" s="4"/>
+    </row>
+    <row r="225" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B225" s="4"/>
+      <c r="C225" s="4"/>
+      <c r="D225" s="4"/>
+    </row>
+    <row r="226" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B226" s="4"/>
+      <c r="C226" s="4"/>
+      <c r="D226" s="4"/>
+    </row>
+    <row r="227" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B227" s="4"/>
+      <c r="C227" s="4"/>
+      <c r="D227" s="4"/>
+    </row>
+    <row r="228" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B228" s="4"/>
+      <c r="C228" s="4"/>
+      <c r="D228" s="4"/>
+    </row>
+    <row r="229" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B229" s="4"/>
+      <c r="C229" s="4"/>
+      <c r="D229" s="4"/>
+    </row>
+    <row r="230" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B230" s="4"/>
+      <c r="C230" s="4"/>
+      <c r="D230" s="4"/>
+    </row>
+    <row r="231" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B231" s="4"/>
+      <c r="C231" s="4"/>
+      <c r="D231" s="4"/>
+    </row>
+    <row r="232" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B232" s="4"/>
+      <c r="C232" s="4"/>
+      <c r="D232" s="4"/>
+    </row>
+    <row r="233" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B233" s="4"/>
+      <c r="C233" s="4"/>
+      <c r="D233" s="4"/>
+    </row>
+    <row r="234" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B234" s="4"/>
+      <c r="C234" s="4"/>
+      <c r="D234" s="4"/>
+    </row>
+    <row r="235" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B235" s="4"/>
+      <c r="C235" s="4"/>
+      <c r="D235" s="4"/>
+    </row>
+    <row r="236" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B236" s="4"/>
+      <c r="C236" s="4"/>
+      <c r="D236" s="4"/>
+    </row>
+    <row r="237" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B237" s="4"/>
+      <c r="C237" s="4"/>
+      <c r="D237" s="4"/>
+    </row>
+    <row r="238" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B238" s="4"/>
+      <c r="C238" s="4"/>
+      <c r="D238" s="4"/>
+    </row>
+    <row r="239" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B239" s="4"/>
+      <c r="C239" s="4"/>
+      <c r="D239" s="4"/>
+    </row>
+    <row r="240" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B240" s="4"/>
+      <c r="C240" s="4"/>
+      <c r="D240" s="4"/>
+    </row>
+    <row r="241" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B241" s="4"/>
+      <c r="C241" s="4"/>
+      <c r="D241" s="4"/>
+    </row>
+    <row r="242" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B242" s="4"/>
+      <c r="C242" s="4"/>
+      <c r="D242" s="4"/>
+    </row>
+    <row r="243" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B243" s="4"/>
+      <c r="C243" s="4"/>
+      <c r="D243" s="4"/>
+    </row>
+    <row r="244" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B244" s="4"/>
+      <c r="C244" s="4"/>
+      <c r="D244" s="4"/>
+    </row>
+    <row r="245" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B245" s="4"/>
+      <c r="C245" s="4"/>
+      <c r="D245" s="4"/>
+    </row>
+    <row r="246" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B246" s="4"/>
+      <c r="C246" s="4"/>
+      <c r="D246" s="4"/>
+    </row>
+    <row r="247" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B247" s="4"/>
+      <c r="C247" s="4"/>
+      <c r="D247" s="4"/>
+    </row>
+    <row r="248" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B248" s="4"/>
+      <c r="C248" s="4"/>
+      <c r="D248" s="4"/>
+    </row>
+    <row r="249" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B249" s="4"/>
+      <c r="C249" s="4"/>
+      <c r="D249" s="4"/>
+    </row>
+    <row r="250" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B250" s="4"/>
+      <c r="C250" s="4"/>
+      <c r="D250" s="4"/>
+    </row>
+    <row r="251" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B251" s="4"/>
+      <c r="C251" s="4"/>
+      <c r="D251" s="4"/>
+    </row>
+    <row r="252" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B252" s="4"/>
+      <c r="C252" s="4"/>
+      <c r="D252" s="4"/>
+    </row>
+    <row r="253" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B253" s="4"/>
+      <c r="C253" s="4"/>
+      <c r="D253" s="4"/>
+    </row>
+    <row r="254" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B254" s="4"/>
+      <c r="C254" s="4"/>
+      <c r="D254" s="4"/>
+    </row>
+    <row r="255" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B255" s="4"/>
+      <c r="C255" s="4"/>
+      <c r="D255" s="4"/>
+    </row>
+    <row r="256" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B256" s="4"/>
+      <c r="C256" s="4"/>
+      <c r="D256" s="4"/>
+    </row>
+    <row r="257" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B257" s="4"/>
+      <c r="C257" s="4"/>
+      <c r="D257" s="4"/>
+    </row>
+    <row r="258" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B258" s="4"/>
+      <c r="C258" s="4"/>
+      <c r="D258" s="4"/>
+    </row>
+    <row r="259" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B259" s="4"/>
+      <c r="C259" s="4"/>
+      <c r="D259" s="4"/>
+    </row>
+    <row r="260" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B260" s="4"/>
+      <c r="C260" s="4"/>
+      <c r="D260" s="4"/>
+    </row>
+    <row r="261" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B261" s="4"/>
+      <c r="C261" s="4"/>
+      <c r="D261" s="4"/>
+    </row>
+    <row r="262" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B262" s="4"/>
+      <c r="C262" s="4"/>
+      <c r="D262" s="4"/>
+    </row>
+    <row r="263" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B263" s="4"/>
+      <c r="C263" s="4"/>
+      <c r="D263" s="4"/>
+    </row>
+    <row r="264" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B264" s="4"/>
+      <c r="C264" s="4"/>
+      <c r="D264" s="4"/>
+    </row>
+    <row r="265" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B265" s="4"/>
+      <c r="C265" s="4"/>
+      <c r="D265" s="4"/>
+    </row>
+    <row r="266" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B266" s="4"/>
+      <c r="C266" s="4"/>
+      <c r="D266" s="4"/>
+    </row>
+    <row r="267" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B267" s="4"/>
+      <c r="C267" s="4"/>
+      <c r="D267" s="4"/>
+    </row>
+    <row r="268" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B268" s="4"/>
+      <c r="C268" s="4"/>
+      <c r="D268" s="4"/>
+    </row>
+    <row r="269" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B269" s="4"/>
+      <c r="C269" s="4"/>
+      <c r="D269" s="4"/>
+    </row>
+    <row r="270" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B270" s="4"/>
+      <c r="C270" s="4"/>
+      <c r="D270" s="4"/>
+    </row>
+    <row r="271" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B271" s="4"/>
+      <c r="C271" s="4"/>
+      <c r="D271" s="4"/>
+    </row>
+    <row r="272" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B272" s="4"/>
+      <c r="C272" s="4"/>
+      <c r="D272" s="4"/>
+    </row>
+    <row r="273" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B273" s="4"/>
+      <c r="C273" s="4"/>
+      <c r="D273" s="4"/>
+    </row>
+    <row r="274" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B274" s="4"/>
+      <c r="C274" s="4"/>
+      <c r="D274" s="4"/>
+    </row>
+    <row r="275" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B275" s="4"/>
+      <c r="C275" s="4"/>
+      <c r="D275" s="4"/>
+    </row>
+    <row r="276" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B276" s="4"/>
+      <c r="C276" s="4"/>
+      <c r="D276" s="4"/>
+    </row>
+    <row r="277" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B277" s="4"/>
+      <c r="C277" s="4"/>
+      <c r="D277" s="4"/>
+    </row>
+    <row r="278" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B278" s="4"/>
+      <c r="C278" s="4"/>
+      <c r="D278" s="4"/>
+    </row>
+    <row r="279" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B279" s="4"/>
+      <c r="C279" s="4"/>
+      <c r="D279" s="4"/>
+    </row>
+    <row r="280" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B280" s="4"/>
+      <c r="C280" s="4"/>
+      <c r="D280" s="4"/>
+    </row>
+    <row r="281" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B281" s="4"/>
+      <c r="C281" s="4"/>
+      <c r="D281" s="4"/>
+    </row>
+    <row r="282" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B282" s="4"/>
+      <c r="C282" s="4"/>
+      <c r="D282" s="4"/>
+    </row>
+    <row r="283" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B283" s="4"/>
+      <c r="C283" s="4"/>
+      <c r="D283" s="4"/>
+    </row>
+    <row r="284" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B284" s="4"/>
+      <c r="C284" s="4"/>
+      <c r="D284" s="4"/>
+    </row>
+    <row r="285" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B285" s="4"/>
+      <c r="C285" s="4"/>
+      <c r="D285" s="4"/>
+    </row>
+    <row r="286" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B286" s="4"/>
+      <c r="C286" s="4"/>
+      <c r="D286" s="4"/>
+    </row>
+    <row r="287" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B287" s="4"/>
+      <c r="C287" s="4"/>
+      <c r="D287" s="4"/>
+    </row>
+    <row r="288" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B288" s="4"/>
+      <c r="C288" s="4"/>
+      <c r="D288" s="4"/>
+    </row>
+    <row r="289" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B289" s="4"/>
+      <c r="C289" s="4"/>
+      <c r="D289" s="4"/>
+    </row>
+    <row r="290" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B290" s="4"/>
+      <c r="C290" s="4"/>
+      <c r="D290" s="4"/>
+    </row>
+    <row r="291" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B291" s="4"/>
+      <c r="C291" s="4"/>
+      <c r="D291" s="4"/>
+    </row>
+    <row r="292" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B292" s="4"/>
+      <c r="C292" s="4"/>
+      <c r="D292" s="4"/>
+    </row>
+    <row r="293" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B293" s="4"/>
+      <c r="C293" s="4"/>
+      <c r="D293" s="4"/>
+    </row>
+    <row r="294" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B294" s="4"/>
+      <c r="C294" s="4"/>
+      <c r="D294" s="4"/>
+    </row>
+    <row r="295" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B295" s="4"/>
+      <c r="C295" s="4"/>
+      <c r="D295" s="4"/>
+    </row>
+    <row r="296" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B296" s="4"/>
+      <c r="C296" s="4"/>
+      <c r="D296" s="4"/>
+    </row>
+    <row r="297" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B297" s="4"/>
+      <c r="C297" s="4"/>
+      <c r="D297" s="4"/>
+    </row>
+    <row r="298" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B298" s="4"/>
+      <c r="C298" s="4"/>
+      <c r="D298" s="4"/>
+    </row>
+    <row r="299" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B299" s="4"/>
+      <c r="C299" s="4"/>
+      <c r="D299" s="4"/>
+    </row>
+    <row r="300" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B300" s="4"/>
+      <c r="C300" s="4"/>
+      <c r="D300" s="4"/>
+    </row>
+    <row r="301" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B301" s="4"/>
+      <c r="C301" s="4"/>
+      <c r="D301" s="4"/>
+    </row>
+    <row r="302" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B302" s="4"/>
+      <c r="C302" s="4"/>
+      <c r="D302" s="4"/>
+    </row>
+    <row r="303" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B303" s="4"/>
+      <c r="C303" s="4"/>
+      <c r="D303" s="4"/>
+    </row>
+    <row r="304" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B304" s="4"/>
+      <c r="C304" s="4"/>
+      <c r="D304" s="4"/>
+    </row>
+    <row r="305" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B305" s="4"/>
+      <c r="C305" s="4"/>
+      <c r="D305" s="4"/>
+    </row>
+    <row r="306" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B306" s="4"/>
+      <c r="C306" s="4"/>
+      <c r="D306" s="4"/>
+    </row>
+    <row r="307" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B307" s="4"/>
+      <c r="C307" s="4"/>
+      <c r="D307" s="4"/>
+    </row>
+    <row r="308" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B308" s="4"/>
+      <c r="C308" s="4"/>
+      <c r="D308" s="4"/>
+    </row>
+    <row r="309" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B309" s="4"/>
+      <c r="C309" s="4"/>
+      <c r="D309" s="4"/>
+    </row>
+    <row r="310" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B310" s="4"/>
+      <c r="C310" s="4"/>
+      <c r="D310" s="4"/>
+    </row>
+    <row r="311" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B311" s="4"/>
+      <c r="C311" s="4"/>
+      <c r="D311" s="4"/>
+    </row>
+    <row r="312" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B312" s="4"/>
+      <c r="C312" s="4"/>
+      <c r="D312" s="4"/>
+    </row>
+    <row r="313" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B313" s="4"/>
+      <c r="C313" s="4"/>
+      <c r="D313" s="4"/>
+    </row>
+    <row r="314" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B314" s="4"/>
+      <c r="C314" s="4"/>
+      <c r="D314" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A41:D41"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Tickets.xlsx
+++ b/Tickets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\tickets_web_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D002F1FF-BD45-4B63-96F0-E6C755A84CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFBC022-21D2-49BE-916F-43B42FC3E4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C0FA381-D708-4478-922F-AE5A18698AE2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C0FA381-D708-4478-922F-AE5A18698AE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="105">
   <si>
     <t>EMPRESAS</t>
   </si>
@@ -162,33 +162,18 @@
     <t>Id</t>
   </si>
   <si>
-    <t>ESTADOS TICKETS</t>
-  </si>
-  <si>
-    <t>Borrador</t>
-  </si>
-  <si>
     <t>Enviado</t>
   </si>
   <si>
-    <t>Rechazado</t>
-  </si>
-  <si>
     <t>Resuelto</t>
   </si>
   <si>
-    <t>Anulado</t>
-  </si>
-  <si>
     <t>Devuelto</t>
   </si>
   <si>
     <t>Tarea</t>
   </si>
   <si>
-    <t>SuperAdmin</t>
-  </si>
-  <si>
     <t>Admin</t>
   </si>
   <si>
@@ -213,9 +198,6 @@
     <t>Alta de User con envío de Email</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Editar SuperAdmin</t>
   </si>
   <si>
@@ -346,6 +328,52 @@
   </si>
   <si>
     <t>Alta de AdminKP con envío de Email</t>
+  </si>
+  <si>
+    <t>X lo mantenemos por las dudas</t>
+  </si>
+  <si>
+    <t>EnCursoDate</t>
+  </si>
+  <si>
+    <t>AdminKP</t>
+  </si>
+  <si>
+    <t>Asignado</t>
+  </si>
+  <si>
+    <t>En curso</t>
+  </si>
+  <si>
+    <t>ESTADOS TICKETS QUE PUEDE PONER CADA TIPO DE USUARIO</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ESTADOS TICKETS QUE PUEDE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>VER</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> CADA TIPO DE USUARIO</t>
+    </r>
+  </si>
+  <si>
+    <t>AsignadoDate</t>
   </si>
 </sst>
 </file>
@@ -477,7 +505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -492,7 +520,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -504,9 +537,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -842,10 +876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC422C99-E1B2-42BC-9FEB-41DADA2E2C18}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="N9:N10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -857,18 +891,20 @@
     <col min="5" max="5" width="3" style="1" customWidth="1"/>
     <col min="6" max="6" width="27.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="1.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="1.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" style="1"/>
-    <col min="11" max="11" width="1.77734375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5546875" style="1"/>
+    <col min="8" max="8" width="14.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="4.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="2.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5546875" style="1" customWidth="1"/>
     <col min="13" max="13" width="1.77734375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5546875" style="1"/>
     <col min="15" max="15" width="1.77734375" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.5546875" style="1"/>
+    <col min="16" max="16" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="1.77734375" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="40.799999999999997" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -878,23 +914,26 @@
       <c r="E1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>71</v>
+      <c r="H1" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>103</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R1" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -904,12 +943,6 @@
       <c r="E2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="L2" s="1" t="s">
         <v>40</v>
       </c>
@@ -919,8 +952,11 @@
       <c r="P2" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R2" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -930,23 +966,26 @@
       <c r="F3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>72</v>
+      <c r="H3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -956,23 +995,26 @@
       <c r="F4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>73</v>
+      <c r="H4" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -982,23 +1024,24 @@
       <c r="F5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>74</v>
+      <c r="H5" s="16"/>
+      <c r="J5" s="16" t="s">
+        <v>43</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -1008,23 +1051,26 @@
       <c r="F6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="15" t="s">
         <v>45</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -1034,23 +1080,23 @@
       <c r="F7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>76</v>
+      <c r="H7" s="16" t="s">
+        <v>100</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -1060,37 +1106,49 @@
       <c r="F8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>77</v>
+      <c r="H8" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>78</v>
+      <c r="H9" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -1100,14 +1158,21 @@
       <c r="E10" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="H10" s="16"/>
       <c r="J10" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N10" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>34</v>
       </c>
@@ -1117,17 +1182,20 @@
       <c r="F11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="H11" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N11" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -1137,8 +1205,14 @@
       <c r="F12" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H12" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -1148,14 +1222,23 @@
       <c r="F13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="H13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N13" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P13" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
@@ -1165,11 +1248,17 @@
       <c r="F14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L14" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H14" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="3" t="s">
         <v>20</v>
       </c>
@@ -1177,16 +1266,53 @@
         <v>33</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="L16" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J19" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J20" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J24" s="15"/>
+    </row>
+    <row r="25" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J25" s="16"/>
+    </row>
+    <row r="26" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J26" s="16"/>
+    </row>
+    <row r="27" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J27" s="16"/>
+    </row>
+    <row r="28" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J28" s="16"/>
+    </row>
+    <row r="29" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J29" s="15"/>
+    </row>
+    <row r="30" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J30" s="16"/>
+    </row>
+    <row r="32" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J32" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1196,11 +1322,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C40B2EA-A404-4D76-ACF6-3DCE9418AA55}">
-  <dimension ref="A1:D314"/>
+  <dimension ref="A1:E314"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17:B17"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -1210,220 +1336,229 @@
     <col min="5" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B4" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C4" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="B5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="B6" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>52</v>
+      <c r="B7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>52</v>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="6" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
         <v>52</v>
       </c>
+      <c r="B10" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>52</v>
+      <c r="E10" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>52</v>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>52</v>
+      <c r="B13" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>52</v>
+      <c r="E13" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>52</v>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="8" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>64</v>
-      </c>
       <c r="C17" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -1434,59 +1569,57 @@
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>52</v>
+      <c r="B21" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>52</v>
+      <c r="B22" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>52</v>
+      <c r="B23" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>52</v>
-      </c>
+      <c r="B24" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
@@ -1495,139 +1628,139 @@
       <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="11"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>52</v>
+      <c r="B27" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="13" t="s">
-        <v>52</v>
+      <c r="B28" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="13" t="s">
-        <v>52</v>
+      <c r="B29" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="13" t="s">
-        <v>52</v>
+      <c r="B30" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="13" t="s">
-        <v>52</v>
+      <c r="B31" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="13" t="s">
-        <v>52</v>
+      <c r="B32" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="13" t="s">
-        <v>52</v>
+      <c r="B33" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="13" t="s">
-        <v>52</v>
+      <c r="B34" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="13" t="s">
-        <v>52</v>
+      <c r="B35" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="13" t="s">
-        <v>52</v>
+      <c r="B36" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="13" t="s">
-        <v>52</v>
+      <c r="B37" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="13" t="s">
-        <v>52</v>
+      <c r="B38" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="13" t="s">
-        <v>52</v>
+      <c r="B39" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -1639,35 +1772,35 @@
       <c r="D40" s="6"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="11"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="14"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">

--- a/Tickets.xlsx
+++ b/Tickets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\tickets_web_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFBC022-21D2-49BE-916F-43B42FC3E4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6051FAB0-CF6C-4F2C-A046-EB7954B46C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C0FA381-D708-4478-922F-AE5A18698AE2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="106">
   <si>
     <t>EMPRESAS</t>
   </si>
@@ -374,6 +374,9 @@
   </si>
   <si>
     <t>AsignadoDate</t>
+  </si>
+  <si>
+    <t>Encurso</t>
   </si>
 </sst>
 </file>
@@ -505,7 +508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -528,6 +531,9 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -536,11 +542,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -876,10 +877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC422C99-E1B2-42BC-9FEB-41DADA2E2C18}">
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="H23" sqref="H23:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -914,10 +915,10 @@
       <c r="E1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="12" t="s">
         <v>103</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -966,10 +967,10 @@
       <c r="F3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="L3" s="1" t="s">
@@ -995,10 +996,10 @@
       <c r="F4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="1" t="s">
         <v>41</v>
       </c>
       <c r="L4" s="1" t="s">
@@ -1024,8 +1025,7 @@
       <c r="F5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L5" s="1" t="s">
@@ -1051,7 +1051,7 @@
       <c r="F6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -1080,7 +1080,7 @@
       <c r="F7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="1" t="s">
         <v>100</v>
       </c>
       <c r="L7" s="1" t="s">
@@ -1106,10 +1106,10 @@
       <c r="F8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L8" s="1" t="s">
@@ -1132,10 +1132,10 @@
       <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="16" t="s">
+      <c r="J9" s="1" t="s">
         <v>41</v>
       </c>
       <c r="L9" s="1" t="s">
@@ -1158,7 +1158,6 @@
       <c r="E10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="16"/>
       <c r="J10" s="1" t="s">
         <v>101</v>
       </c>
@@ -1182,10 +1181,10 @@
       <c r="F11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="J11" s="16" t="s">
+      <c r="J11" s="1" t="s">
         <v>100</v>
       </c>
       <c r="L11" s="1" t="s">
@@ -1205,7 +1204,7 @@
       <c r="F12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="1" t="s">
         <v>43</v>
       </c>
       <c r="P12" s="1" t="s">
@@ -1225,7 +1224,7 @@
       <c r="H13" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="J13" s="15" t="s">
+      <c r="J13" s="2" t="s">
         <v>99</v>
       </c>
       <c r="L13" s="1" t="s">
@@ -1248,10 +1247,10 @@
       <c r="F14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J14" s="16" t="s">
+      <c r="J14" s="1" t="s">
         <v>100</v>
       </c>
       <c r="N14" s="1" t="s">
@@ -1280,39 +1279,59 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="8:10" x14ac:dyDescent="0.2">
       <c r="J19" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J20" s="16" t="s">
+    <row r="20" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="J20" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J24" s="15"/>
-    </row>
-    <row r="25" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J25" s="16"/>
-    </row>
-    <row r="26" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J26" s="16"/>
-    </row>
-    <row r="27" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J27" s="16"/>
-    </row>
-    <row r="28" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J28" s="16"/>
-    </row>
-    <row r="29" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J29" s="15"/>
-    </row>
-    <row r="30" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J30" s="16"/>
-    </row>
-    <row r="32" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J32" s="16"/>
+    <row r="23" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H23" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="5">
+        <v>1</v>
+      </c>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H25" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I25" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H26" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I26" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H27" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="J29" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1351,12 +1370,12 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
@@ -1628,12 +1647,12 @@
       <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="15"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
@@ -1772,12 +1791,12 @@
       <c r="D40" s="6"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="15"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">

--- a/Tickets.xlsx
+++ b/Tickets.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\tickets_web_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6051FAB0-CF6C-4F2C-A046-EB7954B46C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BD8210-9B94-4895-B1CF-926C1183FD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C0FA381-D708-4478-922F-AE5A18698AE2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{2C0FA381-D708-4478-922F-AE5A18698AE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="116">
   <si>
     <t>EMPRESAS</t>
   </si>
@@ -377,6 +378,36 @@
   </si>
   <si>
     <t>Encurso</t>
+  </si>
+  <si>
+    <t>Enviar</t>
+  </si>
+  <si>
+    <t>Devolver</t>
+  </si>
+  <si>
+    <t>Asignar</t>
+  </si>
+  <si>
+    <t>ESTOS SON LOS BOTONES QUE CADA TIPO DE USUARIO PUEDE VER DE ACUERDO AL ESTADO DEL TICKET</t>
+  </si>
+  <si>
+    <t>ESTADOS</t>
+  </si>
+  <si>
+    <t>ESTOS SON LOS TICKETS QUE LE DEBEN APARECER A CADA TIPO DE USUARIO</t>
+  </si>
+  <si>
+    <t>Los Resueltos los mostraremos aparte</t>
+  </si>
+  <si>
+    <t>El Usuario necesita ver todos los estados de sus tickets</t>
+  </si>
+  <si>
+    <t>El Admin no necesita ver los devueltos (son problema de cada Usuario). El resto ve todo. Que sean de su Empresa.</t>
+  </si>
+  <si>
+    <t>El AdminKP solo necesita ver los Asignados y EnCurso de todas las empresas. No le interesa ver los Enviadosy Devueltos (eso es interno de cada empresa)</t>
   </si>
 </sst>
 </file>
@@ -412,7 +443,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -443,8 +474,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -504,11 +547,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -542,6 +622,28 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -879,8 +981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC422C99-E1B2-42BC-9FEB-41DADA2E2C18}">
   <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23:I27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -3193,4 +3295,287 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58173DB-3A8F-42DC-89C3-236FD77BCCD1}">
+  <dimension ref="C1:H32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="11.5546875" style="1"/>
+    <col min="4" max="8" width="9.6640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.5546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C1" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D3" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="21"/>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D4" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C6" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C7" s="17"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C8" s="17"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C9" s="17"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C10" s="18"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C12" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C13" s="17"/>
+      <c r="D13" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C14" s="17"/>
+      <c r="D14" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C15" s="17"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C16" s="18"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C18" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C19" s="17"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C20" s="17"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C21" s="17"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C22" s="18"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C24" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D26" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="21"/>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D27" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C29" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="24"/>
+      <c r="F29" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C30" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D32" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="D26:G26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Tickets.xlsx
+++ b/Tickets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\tickets_web_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BD8210-9B94-4895-B1CF-926C1183FD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1252F6-2017-4636-8A7B-9B6BBD7D23E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{2C0FA381-D708-4478-922F-AE5A18698AE2}"/>
   </bookViews>
@@ -482,7 +482,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,6 +614,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -623,9 +636,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -634,16 +644,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1472,12 +1472,12 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="15"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="22"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
@@ -1749,12 +1749,12 @@
       <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="15"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
@@ -1893,12 +1893,12 @@
       <c r="D40" s="6"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="15"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="22"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
@@ -3299,10 +3299,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58173DB-3A8F-42DC-89C3-236FD77BCCD1}">
-  <dimension ref="C1:H32"/>
+  <dimension ref="C1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -3318,53 +3318,62 @@
       </c>
     </row>
     <row r="3" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="21"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C6" s="16" t="s">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D5" s="16">
+        <v>0</v>
+      </c>
+      <c r="E5" s="16">
+        <v>1</v>
+      </c>
+      <c r="F5" s="16">
+        <v>2</v>
+      </c>
+      <c r="G5" s="16">
+        <v>3</v>
+      </c>
+      <c r="H5" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="23" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C7" s="17"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C8" s="17"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -3372,7 +3381,7 @@
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C9" s="17"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -3380,37 +3389,35 @@
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C10" s="18"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C12" s="16" t="s">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C11" s="15"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C13" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C13" s="17"/>
-      <c r="D13" s="23" t="s">
-        <v>107</v>
-      </c>
+      <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C14" s="17"/>
-      <c r="D14" s="23" t="s">
-        <v>108</v>
+      <c r="C14" s="14"/>
+      <c r="D14" s="19" t="s">
+        <v>107</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -3418,163 +3425,173 @@
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C15" s="17"/>
-      <c r="D15" s="5"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="19" t="s">
+        <v>108</v>
+      </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C16" s="18"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C18" s="16" t="s">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C17" s="15"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C19" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C19" s="17"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>107</v>
-      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C20" s="17"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
+      <c r="F20" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>107</v>
+      </c>
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C21" s="17"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="23" t="s">
-        <v>101</v>
-      </c>
+      <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C22" s="18"/>
+      <c r="C22" s="14"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="23" t="s">
+      <c r="F22" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C23" s="15"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="G23" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C24" s="2" t="s">
+      <c r="H23" s="5"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C25" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="D26" s="19" t="s">
+    <row r="27" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D27" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="21"/>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="D27" s="22" t="s">
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="25"/>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D28" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E28" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="F28" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G28" s="16" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C28" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="G28" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="29" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C29" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" s="24"/>
-      <c r="F29" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="G29" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="18" t="s">
         <v>47</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C30" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="17"/>
+      <c r="F30" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C31" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="G30" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="H30" s="1" t="s">
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="D32" s="1" t="s">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D33" s="1" t="s">
         <v>112</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D3:H3"/>
-    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tickets.xlsx
+++ b/Tickets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\tickets_web_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1252F6-2017-4636-8A7B-9B6BBD7D23E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5EA351A-375A-4550-99E9-0D1652176DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{2C0FA381-D708-4478-922F-AE5A18698AE2}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="124">
   <si>
     <t>EMPRESAS</t>
   </si>
@@ -408,6 +408,30 @@
   </si>
   <si>
     <t>El AdminKP solo necesita ver los Asignados y EnCurso de todas las empresas. No le interesa ver los Enviadosy Devueltos (eso es interno de cada empresa)</t>
+  </si>
+  <si>
+    <t>GetTicketUser</t>
+  </si>
+  <si>
+    <t>id User</t>
+  </si>
+  <si>
+    <t>GetTicketAdmin</t>
+  </si>
+  <si>
+    <t>id Company</t>
+  </si>
+  <si>
+    <t>GetTicketAdminKP</t>
+  </si>
+  <si>
+    <t>GetTicketResueltosUser</t>
+  </si>
+  <si>
+    <t>GetTicketResueltosAdmin</t>
+  </si>
+  <si>
+    <t>GetTicketResueltosAdminKP</t>
   </si>
 </sst>
 </file>
@@ -3299,10 +3323,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58173DB-3A8F-42DC-89C3-236FD77BCCD1}">
-  <dimension ref="C1:H33"/>
+  <dimension ref="C1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23:G23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -3583,9 +3607,51 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D33" s="1" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D36" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D37" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D38" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D40" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D41" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D42" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3594,5 +3660,6 @@
     <mergeCell ref="D27:G27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tickets.xlsx
+++ b/Tickets.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\tickets_web_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5EA351A-375A-4550-99E9-0D1652176DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8BB36B-807A-4051-B928-69019C71D956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{2C0FA381-D708-4478-922F-AE5A18698AE2}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="126">
   <si>
     <t>EMPRESAS</t>
   </si>
@@ -407,9 +407,6 @@
     <t>El Admin no necesita ver los devueltos (son problema de cada Usuario). El resto ve todo. Que sean de su Empresa.</t>
   </si>
   <si>
-    <t>El AdminKP solo necesita ver los Asignados y EnCurso de todas las empresas. No le interesa ver los Enviadosy Devueltos (eso es interno de cada empresa)</t>
-  </si>
-  <si>
     <t>GetTicketUser</t>
   </si>
   <si>
@@ -432,6 +429,15 @@
   </si>
   <si>
     <t>GetTicketResueltosAdminKP</t>
+  </si>
+  <si>
+    <t>Derivado</t>
+  </si>
+  <si>
+    <t>Derivar</t>
+  </si>
+  <si>
+    <t>El AdminKP solo necesita ver los Asignados y EnCurso de todas las empresas. No le interesa ver los Enviadosy Devueltos y Derivados (eso es interno de cada empresa)</t>
   </si>
 </sst>
 </file>
@@ -612,7 +618,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -667,6 +673,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1006,7 +1015,7 @@
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23:H27"/>
+      <selection activeCell="I28" sqref="H28:I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -1456,6 +1465,14 @@
         <v>4</v>
       </c>
     </row>
+    <row r="28" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H28" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I28" s="5">
+        <v>5</v>
+      </c>
+    </row>
     <row r="29" spans="8:10" x14ac:dyDescent="0.2">
       <c r="J29" s="2"/>
     </row>
@@ -3323,34 +3340,33 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58173DB-3A8F-42DC-89C3-236FD77BCCD1}">
-  <dimension ref="C1:H42"/>
+  <dimension ref="C1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="11.5546875" style="1"/>
-    <col min="4" max="8" width="9.6640625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.5546875" style="1"/>
+    <col min="4" max="9" width="9.6640625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C1" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D3" s="23" t="s">
         <v>110</v>
       </c>
       <c r="E3" s="24"/>
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
-      <c r="H3" s="25"/>
-    </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="H3" s="24"/>
+      <c r="I3" s="25"/>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D4" s="16" t="s">
         <v>41</v>
       </c>
@@ -3366,8 +3382,11 @@
       <c r="H4" s="16" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D5" s="16">
         <v>0</v>
       </c>
@@ -3383,8 +3402,11 @@
       <c r="H5" s="16">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I5" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C7" s="13" t="s">
         <v>28</v>
       </c>
@@ -3395,40 +3417,49 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C8" s="14"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I8" s="19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C9" s="14"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C10" s="14"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C11" s="15"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I11" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C13" s="13" t="s">
         <v>45</v>
       </c>
@@ -3437,8 +3468,9 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C14" s="14"/>
       <c r="D14" s="19" t="s">
         <v>107</v>
@@ -3447,8 +3479,9 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C15" s="14"/>
       <c r="D15" s="19" t="s">
         <v>108</v>
@@ -3457,145 +3490,155 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C16" s="14"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C17" s="15"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C17" s="14"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C19" s="13" t="s">
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C18" s="15"/>
+      <c r="D18" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C20" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C20" s="14"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>107</v>
-      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C21" s="14"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="F21" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>107</v>
+      </c>
       <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C22" s="14"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="19" t="s">
-        <v>101</v>
-      </c>
+      <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C23" s="15"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C23" s="14"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C24" s="15"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="19" t="s">
+      <c r="G24" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="H23" s="5"/>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C25" s="2" t="s">
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C26" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="D27" s="23" t="s">
+    <row r="28" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D28" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="25"/>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="D28" s="16" t="s">
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D29" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E29" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="F29" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="G28" s="16" t="s">
+      <c r="G29" s="16" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C29" s="5" t="s">
+      <c r="H29" s="16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C30" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="G29" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="H29" s="1" t="s">
+      <c r="D30" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C30" s="5" t="s">
+    <row r="31" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C31" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" s="17"/>
-      <c r="F30" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="G30" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C31" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D31" s="17"/>
+      <c r="D31" s="18" t="s">
+        <v>47</v>
+      </c>
       <c r="E31" s="17"/>
       <c r="F31" s="18" t="s">
         <v>47</v>
@@ -3603,61 +3646,81 @@
       <c r="G31" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D33" s="1" t="s">
+      <c r="H31" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C32" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H32" s="18"/>
+      <c r="I32" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D34" s="1" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D36" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="37" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D37" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D38" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D40" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F40" s="1" t="s">
         <v>117</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D39" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D41" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D42" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D43" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="D28:H28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Tickets.xlsx
+++ b/Tickets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\tickets_web_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8BB36B-807A-4051-B928-69019C71D956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1940B943-E196-47A7-B57E-4FFD797B379A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{2C0FA381-D708-4478-922F-AE5A18698AE2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C0FA381-D708-4478-922F-AE5A18698AE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="128">
   <si>
     <t>EMPRESAS</t>
   </si>
@@ -438,6 +438,12 @@
   </si>
   <si>
     <t>El AdminKP solo necesita ver los Asignados y EnCurso de todas las empresas. No le interesa ver los Enviadosy Devueltos y Derivados (eso es interno de cada empresa)</t>
+  </si>
+  <si>
+    <t>Derivado-Devuelto</t>
+  </si>
+  <si>
+    <t>Derivado-Resuelto</t>
   </si>
 </sst>
 </file>
@@ -1012,10 +1018,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC422C99-E1B2-42BC-9FEB-41DADA2E2C18}">
-  <dimension ref="A1:R29"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="H28:I28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -1414,17 +1420,20 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="7:10" x14ac:dyDescent="0.2">
       <c r="J19" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="7:10" x14ac:dyDescent="0.2">
       <c r="J20" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
       <c r="H23" s="5" t="s">
         <v>41</v>
       </c>
@@ -1432,7 +1441,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G24" s="1">
+        <v>2</v>
+      </c>
       <c r="H24" s="5" t="s">
         <v>43</v>
       </c>
@@ -1441,7 +1453,10 @@
       </c>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G25" s="1">
+        <v>3</v>
+      </c>
       <c r="H25" s="5" t="s">
         <v>100</v>
       </c>
@@ -1449,7 +1464,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G26" s="1">
+        <v>4</v>
+      </c>
       <c r="H26" s="5" t="s">
         <v>105</v>
       </c>
@@ -1457,7 +1475,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G27" s="1">
+        <v>5</v>
+      </c>
       <c r="H27" s="5" t="s">
         <v>42</v>
       </c>
@@ -1465,7 +1486,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G28" s="1">
+        <v>6</v>
+      </c>
       <c r="H28" s="5" t="s">
         <v>123</v>
       </c>
@@ -1473,8 +1497,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G29" s="1">
+        <v>7</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>126</v>
+      </c>
       <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G30" s="1">
+        <v>8</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>127</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3342,7 +3380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58173DB-3A8F-42DC-89C3-236FD77BCCD1}">
   <dimension ref="C1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>

--- a/Tickets.xlsx
+++ b/Tickets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\tickets_web_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1940B943-E196-47A7-B57E-4FFD797B379A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7494C7-80D3-4B89-9E51-E5BA11CDBB70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C0FA381-D708-4478-922F-AE5A18698AE2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{2C0FA381-D708-4478-922F-AE5A18698AE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1020,7 +1020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC422C99-E1B2-42BC-9FEB-41DADA2E2C18}">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
@@ -3380,7 +3380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58173DB-3A8F-42DC-89C3-236FD77BCCD1}">
   <dimension ref="C1:I43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
